--- a/experiment result/64_0.0_40_zs20_kappa_lp.xlsx
+++ b/experiment result/64_0.0_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1489691098756682</v>
+        <v>0.0009504640815017406</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2661718944383609</v>
+        <v>0.01175977799150085</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06560854561613468</v>
+        <v>0.02391265753512581</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.134425759674294</v>
+        <v>0.02599851884842766</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08290535583272182</v>
+        <v>0.02470195143596629</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.071401735091195</v>
+        <v>0.009212170261917924</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2669486711123152</v>
+        <v>0.02339360063208608</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2711297891982958</v>
+        <v>0.02332085729039001</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1531926643207558</v>
+        <v>0.00543563371545198</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3362011988492882</v>
+        <v>0.01562386543476764</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2796666639765498</v>
+        <v>0.02442555049549619</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.376635034357799</v>
+        <v>0.02243413167121844</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05881460948614726</v>
+        <v>0.01008271597746526</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1164564011395032</v>
+        <v>0.01591753388933994</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1951453871361945</v>
+        <v>0.01639739268435011</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.134258438929932</v>
+        <v>0.02843125781502006</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1829314608506475</v>
+        <v>0.01832179163321243</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05978750482618578</v>
+        <v>0.00773150012709757</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2936609654528553</v>
+        <v>0.02315859373652851</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09901586974806023</v>
+        <v>0.02121557586366852</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08671558885750609</v>
+        <v>0.002449861142282688</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158723244997177</v>
+        <v>0.0074994830799772</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2887793466274529</v>
+        <v>0.0149993860396529</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06754269347835791</v>
+        <v>0.006822617679621333</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06850860926019993</v>
+        <v>0.006025047115501214</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1130527860632035</v>
+        <v>0.02277124738566843</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.26017927555001</v>
+        <v>0.02010243396679379</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.139728193290917</v>
+        <v>0.02088067555935752</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1257005990690217</v>
+        <v>0.01164262229823886</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2427073323261859</v>
+        <v>0.02608477478380865</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01522129306358996</v>
+        <v>0.002057849490664909</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03622077258275519</v>
+        <v>0.0207571520381219</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07428794797533787</v>
+        <v>0.03382584343959829</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1501595244106776</v>
+        <v>0.01335335385567706</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08766626089705749</v>
+        <v>0.0234451429830044</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1241640697067956</v>
+        <v>0.02582072327943902</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1149119174315301</v>
+        <v>0.01152818199308623</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1961414790996784</v>
+        <v>0.01517368485488156</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2200379325449168</v>
+        <v>0.01673652401164081</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330300699244858</v>
+        <v>0.01106636675193232</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2479514948562973</v>
+        <v>0.02044266305805848</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2135923437094428</v>
+        <v>0.00309307549291511</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0617309587347372</v>
+        <v>0.02243413167121844</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.071401735091195</v>
+        <v>0.01475288547947051</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3055530232521229</v>
+        <v>0.02759755160179649</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1823204669996991</v>
+        <v>0.02102656778446977</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2153005571756438</v>
+        <v>0.02433124456159542</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07229899020575507</v>
+        <v>0.008165630424066884</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.07236457293324637</v>
+        <v>0.004528248723199242</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02826317675132277</v>
+        <v>0.008165630424066884</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2307869647873333</v>
+        <v>0.03174756837907364</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1149119174315301</v>
+        <v>0.04736507171131564</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001020582271355842</v>
+        <v>3.168913661189962e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01016827139386316</v>
+        <v>0.005841074981776969</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1891855292468732</v>
+        <v>0.03159574208197012</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1456779589055568</v>
+        <v>0.04540581308338971</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08671558885750609</v>
+        <v>0.0230396789438013</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1204718825201399</v>
+        <v>0.02996358441272645</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1353548925129729</v>
+        <v>0.02991969397861341</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06754269347835791</v>
+        <v>0.02299908710767546</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0382021304784604</v>
+        <v>0.001475696766844067</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1324456980411318</v>
+        <v>0.02021666739747482</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1610742087827591</v>
+        <v>0.01763284256885128</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.071401735091195</v>
+        <v>0.03121291864448375</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1213960105687991</v>
+        <v>0.04178842417115306</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1930209385143943</v>
+        <v>0.05347919313165702</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2206455014767653</v>
+        <v>0.04016815433358955</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08576416322840907</v>
+        <v>0.02106700134557015</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0617309587347372</v>
+        <v>0.01004861803940215</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08003973377519816</v>
+        <v>0.0217434180249911</v>
       </c>
     </row>
   </sheetData>
